--- a/pearson_tables/t2m_netherlands-1-4.xlsx
+++ b/pearson_tables/t2m_netherlands-1-4.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7616887270062256</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6353771046443842</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7057203974693708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6029234900746854</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6403746427501887</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5527818262354113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7947720651148711</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7711455847746506</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.646639166094797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6646734511876311</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6337890301047999</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5485063844187603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7665597708907047</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6784563011046518</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3555583230459046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7763425566201974</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6713913145349951</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6460247987951779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7073853723191109</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5487041896592341</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5577058645677294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7638298415755935</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6464713616948471</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6287340155703637</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
